--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a25_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-227.57878537734524</v>
+        <v>-105.56745778630673</v>
       </c>
       <c r="C2">
-        <v>7.952700985</v>
+        <v>11.123585724</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-236.89995809257056</v>
+        <v>-105.84488399353643</v>
       </c>
       <c r="C3">
-        <v>0.110092836</v>
+        <v>5.559538512</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H3">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-234.73360819292208</v>
+        <v>-105.49382704393152</v>
       </c>
       <c r="C4">
-        <v>0.10359806</v>
+        <v>1.652208195</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-232.95084363095327</v>
+        <v>-104.60548318016075</v>
       </c>
       <c r="C5">
-        <v>0.096710135</v>
+        <v>1.985973199</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H5">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-223.95569713963783</v>
+        <v>-103.49903626996942</v>
       </c>
       <c r="C6">
-        <v>0.139709434</v>
+        <v>2.483046185</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H6">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-229.30109522951756</v>
+        <v>-104.63902673475309</v>
       </c>
       <c r="C7">
-        <v>0.139411704</v>
+        <v>2.135797431</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-221.4677051295246</v>
+        <v>-102.87894890275867</v>
       </c>
       <c r="C8">
-        <v>0.137724083</v>
+        <v>1.806903095</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H8">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-229.22028700507533</v>
+        <v>-105.10124780728994</v>
       </c>
       <c r="C9">
-        <v>0.05664383</v>
+        <v>1.970574475</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-234.3341185339081</v>
+        <v>-105.99608264981093</v>
       </c>
       <c r="C10">
-        <v>0.124777112</v>
+        <v>1.964038455</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-222.48775567500155</v>
+        <v>-102.78699673530132</v>
       </c>
       <c r="C11">
-        <v>0.115640962</v>
+        <v>1.340570307</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0313817488392334</v>
+        <v>0.015876360112426758</v>
       </c>
       <c r="E2">
-        <v>36.44637</v>
+        <v>114.1732</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-234.3341185339081</v>
+        <v>-105.99608264981093</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.029967658444702148</v>
+        <v>1.8000432440806884</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.021779596348510743</v>
+        <v>0.011947974393310547</v>
       </c>
       <c r="E2">
-        <v>36.05198</v>
+        <v>109.25818</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-222.48775567500155</v>
+        <v>-102.78699673530132</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.028276938017211914</v>
+        <v>1.177843801298462</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8368347401921387</v>
+        <v>0.9597090733625488</v>
       </c>
       <c r="E2">
-        <v>34.93374</v>
+        <v>110.35232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-227.57878537734524</v>
+        <v>-105.56745778630673</v>
       </c>
       <c r="C3">
-        <v>1.2488734124872789e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.053607335023925784</v>
+        <v>1.4601812174804687</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0201683304654541</v>
+        <v>0.019844317255493165</v>
       </c>
       <c r="E2">
-        <v>37.71849</v>
+        <v>111.3416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-236.89995809257056</v>
+        <v>-105.84488399353643</v>
       </c>
       <c r="C3">
-        <v>1.1997346753132815e-14</v>
+        <v>0.00948959094675425</v>
       </c>
       <c r="D3">
-        <v>0.04983492875878906</v>
+        <v>5.3511624799942625</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0357849484074707</v>
+        <v>0.011187230572509766</v>
       </c>
       <c r="E2">
-        <v>39.58351</v>
+        <v>111.03335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-234.73360819292208</v>
+        <v>-105.49382704393152</v>
       </c>
       <c r="C3">
-        <v>1.210806993050299e-14</v>
+        <v>0.07448691419469279</v>
       </c>
       <c r="D3">
-        <v>0.025415875745483398</v>
+        <v>1.4870565705152587</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.010692179358276366</v>
+        <v>0.012217883790039063</v>
       </c>
       <c r="E2">
-        <v>40.11273</v>
+        <v>109.81948</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-232.95084363095327</v>
+        <v>-104.60548318016075</v>
       </c>
       <c r="C3">
-        <v>1.2200732561165656e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.029070856499267578</v>
+        <v>1.7787166010548097</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03352877856811524</v>
+        <v>0.025888075358276367</v>
       </c>
       <c r="E2">
-        <v>33.59561</v>
+        <v>113.03886</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-223.95569713963783</v>
+        <v>-103.49903626996942</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0007685320234566919</v>
       </c>
       <c r="D3">
-        <v>0.038923090650390624</v>
+        <v>2.272286114399658</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.025062350549560547</v>
+        <v>0.009927427041259766</v>
       </c>
       <c r="E2">
-        <v>35.00796</v>
+        <v>118.31719</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-229.30109522951756</v>
+        <v>-104.63902673475309</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.05628629065809936</v>
       </c>
       <c r="D3">
-        <v>0.04939399911743164</v>
+        <v>1.9807078530994873</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02417280915722656</v>
+        <v>0.011874016303710938</v>
       </c>
       <c r="E2">
-        <v>38.09389</v>
+        <v>108.71757</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-221.4677051295246</v>
+        <v>-102.87894890275867</v>
       </c>
       <c r="C3">
-        <v>1.283334263736956e-14</v>
+        <v>0.003354180648938238</v>
       </c>
       <c r="D3">
-        <v>0.05431277937854004</v>
+        <v>1.6260208998426513</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.009994509348510741</v>
+        <v>0.010063803397705079</v>
       </c>
       <c r="E2">
-        <v>33.09186</v>
+        <v>106.85473</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-229.22028700507533</v>
+        <v>-105.10124780728994</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.006043950705532129</v>
       </c>
       <c r="D3">
-        <v>0.026615699149536133</v>
+        <v>1.8311555493740235</v>
       </c>
       <c r="E3">
         <v>0.0</v>
